--- a/論文ver1/數據資料/貨品別貿易值－按貨品行業別分類 2001-2024.xlsx
+++ b/論文ver1/數據資料/貨品別貿易值－按貨品行業別分類 2001-2024.xlsx
@@ -1,25 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28827"/>
   <workbookPr hidePivotFieldList="1" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lily1\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\NTUST\論文ver1\數據資料\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E0FA5F96-4FD7-4670-B47C-18327649D953}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E91B3BAF-3EB2-46BB-9E4B-A3792C3C53A1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-96" yWindow="0" windowWidth="11712" windowHeight="12336" activeTab="2" xr2:uid="{57D073B3-5FF4-46D4-9678-1BBED813B2D6}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{57D073B3-5FF4-46D4-9678-1BBED813B2D6}"/>
   </bookViews>
   <sheets>
     <sheet name="正確的表格" sheetId="2" r:id="rId1"/>
     <sheet name="試算完整表" sheetId="1" r:id="rId2"/>
     <sheet name="樞紐分析表" sheetId="3" r:id="rId3"/>
+    <sheet name="工作表1" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="181029"/>
   <pivotCaches>
-    <pivotCache cacheId="3" r:id="rId4"/>
+    <pivotCache cacheId="0" r:id="rId5"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -30,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="82">
   <si>
     <t>產生時間:114/05/19 14:40:03</t>
   </si>
@@ -39,9 +40,6 @@
   </si>
   <si>
     <t>　　　　</t>
-  </si>
-  <si>
-    <t>按美元計算(千美元)</t>
   </si>
   <si>
     <t>  　　　　</t>
@@ -279,12 +277,435 @@
   <si>
     <t>加總 - 平均貿易順差（出口-進口總額）</t>
   </si>
+  <si>
+    <t>西元年</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>紡織成衣業合計</t>
+  </si>
+  <si>
+    <t>人纖製造業</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>紡織業(紗布雜項)</t>
+  </si>
+  <si>
+    <t>成衣服飾業</t>
+  </si>
+  <si>
+    <r>
+      <t>年均出口</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>-11</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="標楷體"/>
+        <family val="4"/>
+        <charset val="136"/>
+      </rPr>
+      <t>紡織業與</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>12</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="標楷體"/>
+        <family val="4"/>
+        <charset val="136"/>
+      </rPr>
+      <t>成衣業</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>年均進口</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>-11</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="標楷體"/>
+        <family val="4"/>
+        <charset val="136"/>
+      </rPr>
+      <t>紡織業與</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>12</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="標楷體"/>
+        <family val="4"/>
+        <charset val="136"/>
+      </rPr>
+      <t>成衣業</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>年均貿易順差（出口</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="標楷體"/>
+        <family val="4"/>
+        <charset val="136"/>
+      </rPr>
+      <t>進口總額）</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>2001</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="標楷體"/>
+        <family val="4"/>
+        <charset val="136"/>
+      </rPr>
+      <t>–</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>2005</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="標楷體"/>
+        <family val="4"/>
+        <charset val="136"/>
+      </rPr>
+      <t>年</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>2006</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="標楷體"/>
+        <family val="4"/>
+        <charset val="136"/>
+      </rPr>
+      <t>–</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>2010</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="標楷體"/>
+        <family val="4"/>
+        <charset val="136"/>
+      </rPr>
+      <t>年</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>2011</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="標楷體"/>
+        <family val="4"/>
+        <charset val="136"/>
+      </rPr>
+      <t>–</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>2015</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="標楷體"/>
+        <family val="4"/>
+        <charset val="136"/>
+      </rPr>
+      <t>年</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>2016</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="標楷體"/>
+        <family val="4"/>
+        <charset val="136"/>
+      </rPr>
+      <t>–</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>2020</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="標楷體"/>
+        <family val="4"/>
+        <charset val="136"/>
+      </rPr>
+      <t>年</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>2021</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="標楷體"/>
+        <family val="4"/>
+        <charset val="136"/>
+      </rPr>
+      <t>–</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>2024</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="標楷體"/>
+        <family val="4"/>
+        <charset val="136"/>
+      </rPr>
+      <t>年</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="標楷體"/>
+        <family val="4"/>
+        <charset val="136"/>
+      </rPr>
+      <t>出口</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>11</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="標楷體"/>
+        <family val="4"/>
+        <charset val="136"/>
+      </rPr>
+      <t>、</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>12</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="標楷體"/>
+        <family val="4"/>
+        <charset val="136"/>
+      </rPr>
+      <t>紡織業</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="標楷體"/>
+        <family val="4"/>
+        <charset val="136"/>
+      </rPr>
+      <t>成衣及服飾品製造業</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="8"/>
+        <color rgb="FF000066"/>
+        <rFont val="細明體"/>
+        <family val="3"/>
+        <charset val="136"/>
+      </rPr>
+      <t>按美元計算</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="8"/>
+        <color rgb="FF000066"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="8"/>
+        <color rgb="FF000066"/>
+        <rFont val="細明體"/>
+        <family val="3"/>
+        <charset val="136"/>
+      </rPr>
+      <t>千美元</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="8"/>
+        <color rgb="FF000066"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>)</t>
+    </r>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="18">
+  <fonts count="26" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -414,6 +835,60 @@
       <charset val="136"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="8"/>
+      <color rgb="FF000066"/>
+      <name val="細明體"/>
+      <family val="3"/>
+      <charset val="136"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="標楷體"/>
+      <family val="4"/>
+      <charset val="136"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF000000"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="標楷體"/>
+      <family val="4"/>
+      <charset val="136"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="8"/>
+      <color rgb="FF000066"/>
+      <name val="Times New Roman"/>
+      <family val="3"/>
+      <charset val="136"/>
+    </font>
   </fonts>
   <fills count="9">
     <fill>
@@ -465,7 +940,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -525,13 +1000,65 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="45">
+  <cellXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -540,12 +1067,6 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -558,15 +1079,6 @@
     </xf>
     <xf numFmtId="3" fontId="6" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -666,6 +1178,36 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="19" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1610,6 +2152,1001 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="zh-TW"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-TW" sz="1400" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:latin typeface="標楷體" panose="03000509000000000000" pitchFamily="65" charset="-120"/>
+                <a:ea typeface="標楷體" panose="03000509000000000000" pitchFamily="65" charset="-120"/>
+              </a:rPr>
+              <a:t>2005</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="zh-TW" altLang="en-US" sz="1400" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:latin typeface="標楷體" panose="03000509000000000000" pitchFamily="65" charset="-120"/>
+                <a:ea typeface="標楷體" panose="03000509000000000000" pitchFamily="65" charset="-120"/>
+              </a:rPr>
+              <a:t>～</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-TW" sz="1400" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:latin typeface="標楷體" panose="03000509000000000000" pitchFamily="65" charset="-120"/>
+                <a:ea typeface="標楷體" panose="03000509000000000000" pitchFamily="65" charset="-120"/>
+              </a:rPr>
+              <a:t>2024 </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="zh-TW" altLang="en-US" sz="1400" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:latin typeface="標楷體" panose="03000509000000000000" pitchFamily="65" charset="-120"/>
+                <a:ea typeface="標楷體" panose="03000509000000000000" pitchFamily="65" charset="-120"/>
+              </a:rPr>
+              <a:t>年紡織及成衣工業產值統計 </a:t>
+            </a:r>
+            <a:endParaRPr lang="zh-TW" altLang="en-US">
+              <a:latin typeface="標楷體" panose="03000509000000000000" pitchFamily="65" charset="-120"/>
+              <a:ea typeface="標楷體" panose="03000509000000000000" pitchFamily="65" charset="-120"/>
+            </a:endParaRPr>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="zh-TW"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>工作表1!$B$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>紡織成衣業合計</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="zh-TW"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="t"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:val>
+            <c:numRef>
+              <c:f>工作表1!$C$2:$V$2</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>5129</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5010</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5180</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4554</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3858</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>4945</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>5146</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>4773</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>4846</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>4822</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>4621</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>4301</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>4248</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>4313</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>4069</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>3466</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>4043</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>3991</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>3099</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>3336</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-FD10-4708-8BFD-0700F0C2D108}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>工作表1!$B$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>紡織業(紗布雜項)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="zh-TW"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="t"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:val>
+            <c:numRef>
+              <c:f>工作表1!$C$3:$V$3</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>3136</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3078</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3242</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2967</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2521</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3231</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3369</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3171</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>3280</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>3318</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>3309</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>3117</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>3087</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>3123</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>3028</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2690</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>3104</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>3106</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>2416</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>2612</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-FD10-4708-8BFD-0700F0C2D108}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>工作表1!$B$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>人纖製造業</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="zh-TW"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="t"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:val>
+            <c:numRef>
+              <c:f>工作表1!$C$4:$V$4</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>1490</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1483</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1524</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1217</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1039</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1393</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1466</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1296</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1260</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1191</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>999</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>877</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>871</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>920</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>772</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>533</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>679</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>623</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>470</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>512</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-FD10-4708-8BFD-0700F0C2D108}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>工作表1!$B$5</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>成衣服飾業</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent4"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="zh-TW"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="t"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:val>
+            <c:numRef>
+              <c:f>工作表1!$C$5:$V$5</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>503</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>449</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>414</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>370</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>298</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>321</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>311</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>306</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>306</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>313</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>313</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>307</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>290</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>270</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>269</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>243</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>260</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>262</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>213</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>212</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-FD10-4708-8BFD-0700F0C2D108}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:dLblPos val="t"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="710558000"/>
+        <c:axId val="710560520"/>
+      </c:lineChart>
+      <c:dateAx>
+        <c:axId val="710558000"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="yyyy" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-TW"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="710560520"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="0"/>
+        <c:lblOffset val="100"/>
+        <c:baseTimeUnit val="days"/>
+        <c:majorUnit val="1"/>
+      </c:dateAx>
+      <c:valAx>
+        <c:axId val="710560520"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-TW"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="710558000"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="zh-TW"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="zh-TW"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -1690,6 +3227,46 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
   <cs:axisTitle>
@@ -2195,6 +3772,509 @@
 
 <file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
@@ -2758,6 +4838,47 @@
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
               <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DF539644-6842-B19F-73EF-74052C1FC764}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>158751</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>95249</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>180976</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="圖表 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BD01E04F-2B0B-836E-8CA9-2F152CFC7603}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2881,7 +5002,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{B613A032-EF07-40DA-AC69-3B621A336511}" name="樞紐分析表1" cacheId="3" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="值" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{B613A032-EF07-40DA-AC69-3B621A336511}" name="樞紐分析表1" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="值" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
   <location ref="A1:B7" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="6">
     <pivotField axis="axisRow" showAll="0">
@@ -3253,321 +5374,321 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B01AA4C1-A7EF-48D7-95FF-8E0623217857}">
   <dimension ref="A1:N10"/>
   <sheetViews>
-    <sheetView topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="J4" sqref="J4:K4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I3" sqref="I3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.2"/>
+  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="14" max="14" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="9.6328125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="19.8">
-      <c r="A1" s="32" t="s">
+    <row r="1" spans="1:14" ht="18.5" x14ac:dyDescent="0.4">
+      <c r="A1" s="27" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" ht="85" x14ac:dyDescent="0.4">
+      <c r="A3" s="28" t="s">
         <v>50</v>
       </c>
+      <c r="B3" s="28" t="s">
+        <v>51</v>
+      </c>
+      <c r="C3" s="28" t="s">
+        <v>52</v>
+      </c>
+      <c r="D3" s="28" t="s">
+        <v>53</v>
+      </c>
+      <c r="E3" s="28" t="s">
+        <v>54</v>
+      </c>
+      <c r="F3" s="28" t="s">
+        <v>55</v>
+      </c>
+      <c r="I3" s="28" t="s">
+        <v>50</v>
+      </c>
+      <c r="J3" s="28" t="s">
+        <v>51</v>
+      </c>
+      <c r="K3" s="28" t="s">
+        <v>52</v>
+      </c>
+      <c r="L3" s="28" t="s">
+        <v>53</v>
+      </c>
+      <c r="M3" s="28" t="s">
+        <v>54</v>
+      </c>
+      <c r="N3" s="28" t="s">
+        <v>55</v>
+      </c>
     </row>
-    <row r="3" spans="1:14" ht="81">
-      <c r="A3" s="33" t="s">
-        <v>51</v>
-      </c>
-      <c r="B3" s="33" t="s">
-        <v>52</v>
-      </c>
-      <c r="C3" s="33" t="s">
-        <v>53</v>
-      </c>
-      <c r="D3" s="33" t="s">
-        <v>54</v>
-      </c>
-      <c r="E3" s="33" t="s">
-        <v>55</v>
-      </c>
-      <c r="F3" s="33" t="s">
+    <row r="4" spans="1:14" ht="34" x14ac:dyDescent="0.4">
+      <c r="A4" s="29" t="s">
         <v>56</v>
       </c>
-      <c r="I3" s="33" t="s">
-        <v>51</v>
-      </c>
-      <c r="J3" s="33" t="s">
-        <v>52</v>
-      </c>
-      <c r="K3" s="33" t="s">
-        <v>53</v>
-      </c>
-      <c r="L3" s="33" t="s">
-        <v>54</v>
-      </c>
-      <c r="M3" s="33" t="s">
-        <v>55</v>
-      </c>
-      <c r="N3" s="33" t="s">
+      <c r="B4" s="30">
+        <v>8387636</v>
+      </c>
+      <c r="C4" s="30">
+        <v>1913649</v>
+      </c>
+      <c r="D4" s="30">
+        <v>1075093</v>
+      </c>
+      <c r="E4" s="30">
+        <v>917890</v>
+      </c>
+      <c r="F4" s="30">
+        <v>8308302</v>
+      </c>
+      <c r="I4" s="29" t="s">
         <v>56</v>
       </c>
+      <c r="J4" s="30">
+        <v>8387636</v>
+      </c>
+      <c r="K4" s="30">
+        <v>1913649</v>
+      </c>
+      <c r="L4" s="30">
+        <v>1075093.2</v>
+      </c>
+      <c r="M4" s="30">
+        <v>917890.2</v>
+      </c>
+      <c r="N4" s="30">
+        <v>8308301.5999999996</v>
+      </c>
     </row>
-    <row r="4" spans="1:14" ht="32.4">
-      <c r="A4" s="34" t="s">
+    <row r="5" spans="1:14" ht="34" x14ac:dyDescent="0.4">
+      <c r="A5" s="29" t="s">
         <v>57</v>
       </c>
-      <c r="B4" s="35">
-        <v>8387636</v>
-      </c>
-      <c r="C4" s="35">
-        <v>1913649</v>
-      </c>
-      <c r="D4" s="35">
-        <v>1075093</v>
-      </c>
-      <c r="E4" s="35">
-        <v>917890</v>
-      </c>
-      <c r="F4" s="35">
-        <v>8308302</v>
-      </c>
-      <c r="I4" s="34" t="s">
+      <c r="B5" s="30">
+        <v>8024538</v>
+      </c>
+      <c r="C5" s="30">
+        <v>1024415</v>
+      </c>
+      <c r="D5" s="30">
+        <v>1028873</v>
+      </c>
+      <c r="E5" s="30">
+        <v>1113982</v>
+      </c>
+      <c r="F5" s="30">
+        <v>6906097</v>
+      </c>
+      <c r="I5" s="29" t="s">
         <v>57</v>
       </c>
-      <c r="J4" s="35">
-        <v>8387636</v>
-      </c>
-      <c r="K4" s="35">
-        <v>1913649</v>
-      </c>
-      <c r="L4" s="35">
-        <v>1075093.2</v>
-      </c>
-      <c r="M4" s="35">
-        <v>917890.2</v>
-      </c>
-      <c r="N4" s="35">
-        <v>8308301.5999999996</v>
+      <c r="J5" s="30">
+        <v>8024538</v>
+      </c>
+      <c r="K5" s="30">
+        <v>1024414.6</v>
+      </c>
+      <c r="L5" s="30">
+        <v>1028873.2</v>
+      </c>
+      <c r="M5" s="30">
+        <v>1113982</v>
+      </c>
+      <c r="N5" s="30">
+        <v>6906097.3999999994</v>
       </c>
     </row>
-    <row r="5" spans="1:14" ht="32.4">
-      <c r="A5" s="34" t="s">
+    <row r="6" spans="1:14" ht="34" x14ac:dyDescent="0.4">
+      <c r="A6" s="31" t="s">
         <v>58</v>
       </c>
-      <c r="B5" s="35">
-        <v>8024538</v>
-      </c>
-      <c r="C5" s="35">
-        <v>1024415</v>
-      </c>
-      <c r="D5" s="35">
-        <v>1028873</v>
-      </c>
-      <c r="E5" s="35">
-        <v>1113982</v>
-      </c>
-      <c r="F5" s="35">
-        <v>6906097</v>
-      </c>
-      <c r="I5" s="34" t="s">
+      <c r="B6" s="30">
+        <v>8206087</v>
+      </c>
+      <c r="C6" s="30">
+        <v>1469032</v>
+      </c>
+      <c r="D6" s="30">
+        <v>1051983</v>
+      </c>
+      <c r="E6" s="30">
+        <v>1015936</v>
+      </c>
+      <c r="F6" s="30">
+        <v>7607200</v>
+      </c>
+      <c r="I6" s="31" t="s">
         <v>58</v>
       </c>
-      <c r="J5" s="35">
-        <v>8024538</v>
-      </c>
-      <c r="K5" s="35">
-        <v>1024414.6</v>
-      </c>
-      <c r="L5" s="35">
-        <v>1028873.2</v>
-      </c>
-      <c r="M5" s="35">
-        <v>1113982</v>
-      </c>
-      <c r="N5" s="35">
-        <v>6906097.3999999994</v>
+      <c r="J6" s="30">
+        <v>8206087</v>
+      </c>
+      <c r="K6" s="30">
+        <v>1469031.8</v>
+      </c>
+      <c r="L6" s="30">
+        <v>1051983.2</v>
+      </c>
+      <c r="M6" s="30">
+        <v>1015936.1</v>
+      </c>
+      <c r="N6" s="30">
+        <v>7607199.5000000009</v>
       </c>
     </row>
-    <row r="6" spans="1:14" ht="32.4">
-      <c r="A6" s="36" t="s">
+    <row r="7" spans="1:14" ht="34" x14ac:dyDescent="0.4">
+      <c r="A7" s="29" t="s">
         <v>59</v>
       </c>
-      <c r="B6" s="35">
-        <v>8206087</v>
-      </c>
-      <c r="C6" s="35">
-        <v>1469032</v>
-      </c>
-      <c r="D6" s="35">
-        <v>1051983</v>
-      </c>
-      <c r="E6" s="35">
-        <v>1015936</v>
-      </c>
-      <c r="F6" s="35">
-        <v>7607200</v>
-      </c>
-      <c r="I6" s="36" t="s">
+      <c r="B7" s="30">
+        <v>9248127</v>
+      </c>
+      <c r="C7" s="30">
+        <v>830273</v>
+      </c>
+      <c r="D7" s="30">
+        <v>1246033</v>
+      </c>
+      <c r="E7" s="30">
+        <v>1686098</v>
+      </c>
+      <c r="F7" s="30">
+        <v>7146270</v>
+      </c>
+      <c r="I7" s="29" t="s">
         <v>59</v>
       </c>
-      <c r="J6" s="35">
-        <v>8206087</v>
-      </c>
-      <c r="K6" s="35">
-        <v>1469031.8</v>
-      </c>
-      <c r="L6" s="35">
-        <v>1051983.2</v>
-      </c>
-      <c r="M6" s="35">
-        <v>1015936.1</v>
-      </c>
-      <c r="N6" s="35">
-        <v>7607199.5000000009</v>
+      <c r="J7" s="30">
+        <v>9248127.4000000004</v>
+      </c>
+      <c r="K7" s="30">
+        <v>830272.6</v>
+      </c>
+      <c r="L7" s="30">
+        <v>1246032.6000000001</v>
+      </c>
+      <c r="M7" s="30">
+        <v>1686097.8</v>
+      </c>
+      <c r="N7" s="30">
+        <v>7146269.5999999996</v>
       </c>
     </row>
-    <row r="7" spans="1:14" ht="32.4">
-      <c r="A7" s="34" t="s">
+    <row r="8" spans="1:14" ht="34" x14ac:dyDescent="0.4">
+      <c r="A8" s="29" t="s">
         <v>60</v>
       </c>
-      <c r="B7" s="35">
-        <v>9248127</v>
-      </c>
-      <c r="C7" s="35">
-        <v>830273</v>
-      </c>
-      <c r="D7" s="35">
-        <v>1246033</v>
-      </c>
-      <c r="E7" s="35">
-        <v>1686098</v>
-      </c>
-      <c r="F7" s="35">
-        <v>7146270</v>
-      </c>
-      <c r="I7" s="34" t="s">
+      <c r="B8" s="30">
+        <v>7979341</v>
+      </c>
+      <c r="C8" s="30">
+        <v>605220</v>
+      </c>
+      <c r="D8" s="30">
+        <v>1237597</v>
+      </c>
+      <c r="E8" s="30">
+        <v>1916448</v>
+      </c>
+      <c r="F8" s="30">
+        <v>5430516</v>
+      </c>
+      <c r="I8" s="29" t="s">
         <v>60</v>
       </c>
-      <c r="J7" s="35">
-        <v>9248127.4000000004</v>
-      </c>
-      <c r="K7" s="35">
-        <v>830272.6</v>
-      </c>
-      <c r="L7" s="35">
-        <v>1246032.6000000001</v>
-      </c>
-      <c r="M7" s="35">
-        <v>1686097.8</v>
-      </c>
-      <c r="N7" s="35">
-        <v>7146269.5999999996</v>
+      <c r="J8" s="30">
+        <v>7979341</v>
+      </c>
+      <c r="K8" s="30">
+        <v>605220.19999999995</v>
+      </c>
+      <c r="L8" s="30">
+        <v>1237597.2</v>
+      </c>
+      <c r="M8" s="30">
+        <v>1916448.2</v>
+      </c>
+      <c r="N8" s="30">
+        <v>5430515.7999999989</v>
       </c>
     </row>
-    <row r="8" spans="1:14" ht="32.4">
-      <c r="A8" s="34" t="s">
+    <row r="9" spans="1:14" ht="34" x14ac:dyDescent="0.4">
+      <c r="A9" s="31" t="s">
         <v>61</v>
       </c>
-      <c r="B8" s="35">
-        <v>7979341</v>
-      </c>
-      <c r="C8" s="35">
-        <v>605220</v>
-      </c>
-      <c r="D8" s="35">
-        <v>1237597</v>
-      </c>
-      <c r="E8" s="35">
-        <v>1916448</v>
-      </c>
-      <c r="F8" s="35">
-        <v>5430516</v>
-      </c>
-      <c r="I8" s="34" t="s">
+      <c r="B9" s="30">
+        <v>8613734</v>
+      </c>
+      <c r="C9" s="30">
+        <v>717746</v>
+      </c>
+      <c r="D9" s="30">
+        <v>1241815</v>
+      </c>
+      <c r="E9" s="30">
+        <v>1801273</v>
+      </c>
+      <c r="F9" s="30">
+        <v>7371920</v>
+      </c>
+      <c r="I9" s="31" t="s">
         <v>61</v>
       </c>
-      <c r="J8" s="35">
-        <v>7979341</v>
-      </c>
-      <c r="K8" s="35">
-        <v>605220.19999999995</v>
-      </c>
-      <c r="L8" s="35">
-        <v>1237597.2</v>
-      </c>
-      <c r="M8" s="35">
-        <v>1916448.2</v>
-      </c>
-      <c r="N8" s="35">
-        <v>5430515.7999999989</v>
+      <c r="J9" s="30">
+        <v>8613734.1999999993</v>
+      </c>
+      <c r="K9" s="30">
+        <v>717746.4</v>
+      </c>
+      <c r="L9" s="30">
+        <v>1241814.8999999999</v>
+      </c>
+      <c r="M9" s="30">
+        <v>1801273</v>
+      </c>
+      <c r="N9" s="35">
+        <v>6288392.6999999993</v>
       </c>
     </row>
-    <row r="9" spans="1:14" ht="32.4">
-      <c r="A9" s="36" t="s">
+    <row r="10" spans="1:14" ht="34" x14ac:dyDescent="0.4">
+      <c r="A10" s="29" t="s">
         <v>62</v>
       </c>
-      <c r="B9" s="35">
-        <v>8613734</v>
-      </c>
-      <c r="C9" s="35">
-        <v>717746</v>
-      </c>
-      <c r="D9" s="35">
-        <v>1241815</v>
-      </c>
-      <c r="E9" s="35">
-        <v>1801273</v>
-      </c>
-      <c r="F9" s="35">
-        <v>7371920</v>
-      </c>
-      <c r="I9" s="36" t="s">
+      <c r="B10" s="30">
+        <v>6934070</v>
+      </c>
+      <c r="C10" s="30">
+        <v>519046</v>
+      </c>
+      <c r="D10" s="30">
+        <v>1407797</v>
+      </c>
+      <c r="E10" s="30">
+        <v>2216692</v>
+      </c>
+      <c r="F10" s="30">
+        <v>5526273</v>
+      </c>
+      <c r="I10" s="29" t="s">
         <v>62</v>
       </c>
-      <c r="J9" s="35">
-        <v>8613734.1999999993</v>
-      </c>
-      <c r="K9" s="35">
-        <v>717746.4</v>
-      </c>
-      <c r="L9" s="35">
-        <v>1241814.8999999999</v>
-      </c>
-      <c r="M9" s="35">
-        <v>1801273</v>
-      </c>
-      <c r="N9" s="40">
-        <v>6288392.6999999993</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14" ht="32.4">
-      <c r="A10" s="34" t="s">
-        <v>63</v>
-      </c>
-      <c r="B10" s="35">
-        <v>6934070</v>
-      </c>
-      <c r="C10" s="35">
-        <v>519046</v>
-      </c>
-      <c r="D10" s="35">
-        <v>1407797</v>
-      </c>
-      <c r="E10" s="35">
-        <v>2216692</v>
-      </c>
-      <c r="F10" s="35">
-        <v>5526273</v>
-      </c>
-      <c r="I10" s="34" t="s">
-        <v>63</v>
-      </c>
-      <c r="J10" s="35">
+      <c r="J10" s="30">
         <v>6934069.75</v>
       </c>
-      <c r="K10" s="35">
+      <c r="K10" s="30">
         <v>519045.75</v>
       </c>
-      <c r="L10" s="35">
+      <c r="L10" s="30">
         <v>1407796.75</v>
       </c>
-      <c r="M10" s="35">
+      <c r="M10" s="30">
         <v>2216691.75</v>
       </c>
-      <c r="N10" s="40">
+      <c r="N10" s="35">
         <v>3828627</v>
       </c>
     </row>
@@ -3582,1012 +5703,1091 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8ABDF3B3-8514-468F-9732-27485F880237}">
   <dimension ref="A1:P44"/>
   <sheetViews>
-    <sheetView topLeftCell="A31" zoomScale="136" zoomScaleNormal="136" workbookViewId="0">
-      <selection activeCell="C48" sqref="C48"/>
+    <sheetView tabSelected="1" zoomScale="136" zoomScaleNormal="136" workbookViewId="0">
+      <selection activeCell="K14" sqref="K14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.2"/>
+  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="10.77734375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.77734375" bestFit="1" customWidth="1"/>
-    <col min="10" max="13" width="9.77734375" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="10.44140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.81640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.81640625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11.26953125" bestFit="1" customWidth="1"/>
+    <col min="11" max="13" width="9.81640625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="10.453125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="23.4">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="40" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3"/>
-      <c r="D1" s="3"/>
-      <c r="E1" s="3"/>
-      <c r="F1" s="3"/>
-      <c r="G1" s="3"/>
+      <c r="C1" s="40"/>
+      <c r="D1" s="40"/>
+      <c r="E1" s="40"/>
+      <c r="F1" s="40"/>
+      <c r="G1" s="40"/>
       <c r="H1" s="2"/>
       <c r="O1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.4">
+      <c r="A2" s="41"/>
+      <c r="B2" s="41"/>
+      <c r="C2" s="41"/>
+      <c r="D2" s="41"/>
+      <c r="E2" s="41"/>
+      <c r="F2" s="41"/>
+      <c r="G2" s="41"/>
+      <c r="H2" s="41"/>
+      <c r="I2" s="41"/>
+      <c r="O2" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="2" spans="1:16">
-      <c r="A2" s="4"/>
-      <c r="B2" s="4"/>
-      <c r="C2" s="4"/>
-      <c r="D2" s="4"/>
-      <c r="E2" s="4"/>
-      <c r="F2" s="4"/>
-      <c r="G2" s="4"/>
-      <c r="H2" s="4"/>
-      <c r="I2" s="4"/>
-      <c r="O2" t="s">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.4">
+      <c r="A3" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="49" t="s">
+        <v>81</v>
+      </c>
+      <c r="C3" s="42"/>
+      <c r="D3" s="42"/>
+      <c r="E3" s="42"/>
+      <c r="F3" s="42"/>
+      <c r="G3" s="43"/>
+    </row>
+    <row r="4" spans="1:16" ht="68" x14ac:dyDescent="0.4">
+      <c r="A4" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D4" s="3"/>
+      <c r="E4" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="G4" s="3"/>
+      <c r="I4" s="28" t="s">
+        <v>50</v>
+      </c>
+      <c r="J4" s="28" t="s">
+        <v>51</v>
+      </c>
+      <c r="K4" s="28" t="s">
+        <v>52</v>
+      </c>
+      <c r="L4" s="28" t="s">
+        <v>53</v>
+      </c>
+      <c r="M4" s="28" t="s">
+        <v>54</v>
+      </c>
+      <c r="N4" s="28" t="s">
+        <v>55</v>
+      </c>
+      <c r="O4" t="s">
         <v>34</v>
       </c>
+      <c r="P4" t="s">
+        <v>35</v>
+      </c>
     </row>
-    <row r="3" spans="1:16">
-      <c r="A3" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="C3" s="10"/>
-      <c r="D3" s="10"/>
-      <c r="E3" s="10"/>
-      <c r="F3" s="10"/>
-      <c r="G3" s="11"/>
+    <row r="5" spans="1:16" ht="34" x14ac:dyDescent="0.4">
+      <c r="A5" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" s="6">
+        <v>8803772</v>
+      </c>
+      <c r="C5" s="6">
+        <v>2323818</v>
+      </c>
+      <c r="D5" s="6"/>
+      <c r="E5" s="6">
+        <v>985665</v>
+      </c>
+      <c r="F5" s="6">
+        <v>915585</v>
+      </c>
+      <c r="G5" s="6"/>
+      <c r="I5" s="29" t="s">
+        <v>56</v>
+      </c>
+      <c r="J5" s="30">
+        <v>8387636</v>
+      </c>
+      <c r="K5" s="30">
+        <v>1913649</v>
+      </c>
+      <c r="L5" s="30">
+        <v>1075093.2</v>
+      </c>
+      <c r="M5" s="30">
+        <v>917890.2</v>
+      </c>
+      <c r="N5" s="30">
+        <v>8308301.5999999996</v>
+      </c>
+      <c r="O5" t="s">
+        <v>36</v>
+      </c>
+      <c r="P5" t="s">
+        <v>37</v>
+      </c>
     </row>
-    <row r="4" spans="1:16" ht="81">
-      <c r="A4" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="B4" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="C4" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="D4" s="5"/>
-      <c r="E4" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="F4" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="G4" s="5"/>
-      <c r="I4" s="33" t="s">
-        <v>51</v>
-      </c>
-      <c r="J4" s="33" t="s">
-        <v>52</v>
-      </c>
-      <c r="K4" s="33" t="s">
-        <v>53</v>
-      </c>
-      <c r="L4" s="33" t="s">
-        <v>54</v>
-      </c>
-      <c r="M4" s="33" t="s">
-        <v>55</v>
-      </c>
-      <c r="N4" s="33" t="s">
-        <v>56</v>
-      </c>
-      <c r="O4" t="s">
-        <v>35</v>
-      </c>
-      <c r="P4" t="s">
-        <v>36</v>
+    <row r="6" spans="1:16" ht="34" x14ac:dyDescent="0.4">
+      <c r="A6" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6" s="6">
+        <v>8360926</v>
+      </c>
+      <c r="C6" s="6">
+        <v>2044315</v>
+      </c>
+      <c r="D6" s="6"/>
+      <c r="E6" s="6">
+        <v>1102449</v>
+      </c>
+      <c r="F6" s="6">
+        <v>821034</v>
+      </c>
+      <c r="G6" s="6"/>
+      <c r="I6" s="29" t="s">
+        <v>57</v>
+      </c>
+      <c r="J6" s="30">
+        <v>8024538</v>
+      </c>
+      <c r="K6" s="30">
+        <v>1024414.6</v>
+      </c>
+      <c r="L6" s="30">
+        <v>1028873.2</v>
+      </c>
+      <c r="M6" s="30">
+        <v>1113982</v>
+      </c>
+      <c r="N6" s="30">
+        <v>6906097.3999999994</v>
       </c>
     </row>
-    <row r="5" spans="1:16" ht="32.4">
-      <c r="A5" s="14" t="s">
-        <v>9</v>
-      </c>
-      <c r="B5" s="8">
-        <v>8803772</v>
-      </c>
-      <c r="C5" s="8">
-        <v>2323818</v>
-      </c>
-      <c r="D5" s="8"/>
-      <c r="E5" s="8">
-        <v>985665</v>
-      </c>
-      <c r="F5" s="8">
-        <v>915585</v>
-      </c>
-      <c r="G5" s="8"/>
-      <c r="I5" s="34" t="s">
-        <v>57</v>
-      </c>
-      <c r="J5" s="35">
-        <v>8387636</v>
-      </c>
-      <c r="K5" s="35">
-        <v>1913649</v>
-      </c>
-      <c r="L5" s="35">
-        <v>1075093.2</v>
-      </c>
-      <c r="M5" s="35">
-        <v>917890.2</v>
-      </c>
-      <c r="N5" s="35">
-        <v>8308301.5999999996</v>
-      </c>
-      <c r="O5" t="s">
-        <v>37</v>
-      </c>
-      <c r="P5" t="s">
+    <row r="7" spans="1:16" ht="34" x14ac:dyDescent="0.4">
+      <c r="A7" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="B7" s="6">
+        <v>7998609</v>
+      </c>
+      <c r="C7" s="6">
+        <v>1961877</v>
+      </c>
+      <c r="D7" s="6"/>
+      <c r="E7" s="6">
+        <v>1092361</v>
+      </c>
+      <c r="F7" s="6">
+        <v>809496</v>
+      </c>
+      <c r="G7" s="6"/>
+      <c r="I7" s="31" t="s">
+        <v>58</v>
+      </c>
+      <c r="J7" s="30">
+        <v>8206087</v>
+      </c>
+      <c r="K7" s="30">
+        <v>1469031.8</v>
+      </c>
+      <c r="L7" s="30">
+        <v>1051983.2</v>
+      </c>
+      <c r="M7" s="30">
+        <v>1015936.1</v>
+      </c>
+      <c r="N7" s="30">
+        <v>7607199.5000000009</v>
+      </c>
+      <c r="O7" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="6" spans="1:16" ht="32.4">
-      <c r="A6" s="14" t="s">
-        <v>10</v>
-      </c>
-      <c r="B6" s="8">
-        <v>8360926</v>
-      </c>
-      <c r="C6" s="8">
-        <v>2044315</v>
-      </c>
-      <c r="D6" s="8"/>
-      <c r="E6" s="8">
-        <v>1102449</v>
-      </c>
-      <c r="F6" s="8">
-        <v>821034</v>
-      </c>
-      <c r="G6" s="8"/>
-      <c r="I6" s="34" t="s">
-        <v>58</v>
-      </c>
-      <c r="J6" s="35">
-        <v>8024538</v>
-      </c>
-      <c r="K6" s="35">
-        <v>1024414.6</v>
-      </c>
-      <c r="L6" s="35">
-        <v>1028873.2</v>
-      </c>
-      <c r="M6" s="35">
-        <v>1113982</v>
-      </c>
-      <c r="N6" s="35">
-        <v>6906097.3999999994</v>
+    <row r="8" spans="1:16" ht="34" x14ac:dyDescent="0.4">
+      <c r="A8" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="B8" s="6">
+        <v>8537617</v>
+      </c>
+      <c r="C8" s="6">
+        <v>1813841</v>
+      </c>
+      <c r="D8" s="6"/>
+      <c r="E8" s="6">
+        <v>1139041</v>
+      </c>
+      <c r="F8" s="6">
+        <v>975217</v>
+      </c>
+      <c r="G8" s="6"/>
+      <c r="I8" s="29" t="s">
+        <v>59</v>
+      </c>
+      <c r="J8" s="30">
+        <v>9248127.4000000004</v>
+      </c>
+      <c r="K8" s="30">
+        <v>830272.6</v>
+      </c>
+      <c r="L8" s="30">
+        <v>1246032.6000000001</v>
+      </c>
+      <c r="M8" s="30">
+        <v>1686097.8</v>
+      </c>
+      <c r="N8" s="30">
+        <v>7146269.5999999996</v>
+      </c>
+      <c r="O8" t="s">
+        <v>39</v>
       </c>
     </row>
-    <row r="7" spans="1:16" ht="32.4">
-      <c r="A7" s="14" t="s">
-        <v>11</v>
-      </c>
-      <c r="B7" s="8">
-        <v>7998609</v>
-      </c>
-      <c r="C7" s="8">
-        <v>1961877</v>
-      </c>
-      <c r="D7" s="8"/>
-      <c r="E7" s="8">
-        <v>1092361</v>
-      </c>
-      <c r="F7" s="8">
-        <v>809496</v>
-      </c>
-      <c r="G7" s="8"/>
-      <c r="I7" s="36" t="s">
-        <v>59</v>
-      </c>
-      <c r="J7" s="35">
-        <v>8206087</v>
-      </c>
-      <c r="K7" s="35">
-        <v>1469031.8</v>
-      </c>
-      <c r="L7" s="35">
-        <v>1051983.2</v>
-      </c>
-      <c r="M7" s="35">
-        <v>1015936.1</v>
-      </c>
-      <c r="N7" s="35">
-        <v>7607199.5000000009</v>
-      </c>
-      <c r="O7" t="s">
-        <v>39</v>
+    <row r="9" spans="1:16" ht="34" x14ac:dyDescent="0.4">
+      <c r="A9" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="B9" s="6">
+        <v>8237256</v>
+      </c>
+      <c r="C9" s="6">
+        <v>1424394</v>
+      </c>
+      <c r="D9" s="26"/>
+      <c r="E9" s="6">
+        <v>1055950</v>
+      </c>
+      <c r="F9" s="6">
+        <v>1068119</v>
+      </c>
+      <c r="G9" s="26"/>
+      <c r="I9" s="29" t="s">
+        <v>60</v>
+      </c>
+      <c r="J9" s="30">
+        <v>7979341</v>
+      </c>
+      <c r="K9" s="30">
+        <v>605220.19999999995</v>
+      </c>
+      <c r="L9" s="30">
+        <v>1237597.2</v>
+      </c>
+      <c r="M9" s="30">
+        <v>1916448.2</v>
+      </c>
+      <c r="N9" s="30">
+        <v>5430515.7999999989</v>
       </c>
     </row>
-    <row r="8" spans="1:16" ht="32.4">
-      <c r="A8" s="14" t="s">
-        <v>12</v>
-      </c>
-      <c r="B8" s="8">
-        <v>8537617</v>
-      </c>
-      <c r="C8" s="8">
-        <v>1813841</v>
-      </c>
-      <c r="D8" s="8"/>
-      <c r="E8" s="8">
-        <v>1139041</v>
-      </c>
-      <c r="F8" s="8">
-        <v>975217</v>
-      </c>
-      <c r="G8" s="8"/>
-      <c r="I8" s="34" t="s">
-        <v>60</v>
-      </c>
-      <c r="J8" s="35">
-        <v>9248127.4000000004</v>
-      </c>
-      <c r="K8" s="35">
-        <v>830272.6</v>
-      </c>
-      <c r="L8" s="35">
-        <v>1246032.6000000001</v>
-      </c>
-      <c r="M8" s="35">
-        <v>1686097.8</v>
-      </c>
-      <c r="N8" s="35">
-        <v>7146269.5999999996</v>
-      </c>
-      <c r="O8" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="9" spans="1:16" ht="32.4">
-      <c r="A9" s="14" t="s">
-        <v>13</v>
-      </c>
-      <c r="B9" s="8">
-        <v>8237256</v>
-      </c>
-      <c r="C9" s="8">
-        <v>1424394</v>
-      </c>
-      <c r="D9" s="31"/>
-      <c r="E9" s="8">
-        <v>1055950</v>
-      </c>
-      <c r="F9" s="8">
-        <v>1068119</v>
-      </c>
-      <c r="G9" s="31"/>
-      <c r="I9" s="34" t="s">
-        <v>61</v>
-      </c>
-      <c r="J9" s="35">
-        <v>7979341</v>
-      </c>
-      <c r="K9" s="35">
-        <v>605220.19999999995</v>
-      </c>
-      <c r="L9" s="35">
-        <v>1237597.2</v>
-      </c>
-      <c r="M9" s="35">
-        <v>1916448.2</v>
-      </c>
-      <c r="N9" s="35">
-        <v>5430515.7999999989</v>
-      </c>
-    </row>
-    <row r="10" spans="1:16" ht="32.4">
-      <c r="A10" s="19" t="s">
-        <v>44</v>
-      </c>
-      <c r="B10" s="28">
+    <row r="10" spans="1:16" ht="34" x14ac:dyDescent="0.4">
+      <c r="A10" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="B10" s="23">
         <f>AVERAGE(B5:B9)</f>
         <v>8387636</v>
       </c>
-      <c r="C10" s="28">
-        <f t="shared" ref="C10:G10" si="0">AVERAGE(C5:C9)</f>
+      <c r="C10" s="23">
+        <f t="shared" ref="C10:F10" si="0">AVERAGE(C5:C9)</f>
         <v>1913649</v>
       </c>
-      <c r="D10" s="25">
+      <c r="D10" s="20">
         <f>B10+C10</f>
         <v>10301285</v>
       </c>
-      <c r="E10" s="28">
+      <c r="E10" s="23">
         <f t="shared" si="0"/>
         <v>1075093.2</v>
       </c>
-      <c r="F10" s="28">
+      <c r="F10" s="23">
         <f t="shared" si="0"/>
         <v>917890.2</v>
       </c>
-      <c r="G10" s="25">
+      <c r="G10" s="20">
         <f>E10+F10</f>
         <v>1992983.4</v>
       </c>
-      <c r="I10" s="36" t="s">
-        <v>62</v>
-      </c>
-      <c r="J10" s="35">
+      <c r="I10" s="31" t="s">
+        <v>61</v>
+      </c>
+      <c r="J10" s="30">
         <v>8613734.1999999993</v>
       </c>
-      <c r="K10" s="35">
+      <c r="K10" s="30">
         <v>717746.4</v>
       </c>
-      <c r="L10" s="35">
+      <c r="L10" s="30">
         <v>1241814.8999999999</v>
       </c>
-      <c r="M10" s="35">
+      <c r="M10" s="30">
         <v>1801273</v>
       </c>
-      <c r="N10" s="35">
+      <c r="N10" s="30">
         <v>6288392.6999999993</v>
       </c>
     </row>
-    <row r="11" spans="1:16" s="17" customFormat="1" ht="32.4">
-      <c r="A11" s="20" t="s">
-        <v>45</v>
-      </c>
-      <c r="B11" s="30">
+    <row r="11" spans="1:16" s="12" customFormat="1" ht="34" x14ac:dyDescent="0.4">
+      <c r="A11" s="15" t="s">
+        <v>44</v>
+      </c>
+      <c r="B11" s="25">
         <f>D10-G10</f>
         <v>8308301.5999999996</v>
       </c>
-      <c r="C11" s="13"/>
-      <c r="D11" s="13"/>
-      <c r="E11" s="13"/>
-      <c r="F11" s="13"/>
-      <c r="G11" s="13"/>
-      <c r="I11" s="34" t="s">
-        <v>63</v>
-      </c>
-      <c r="J11" s="35">
+      <c r="C11" s="8"/>
+      <c r="D11" s="8"/>
+      <c r="E11" s="8"/>
+      <c r="F11" s="8"/>
+      <c r="G11" s="8"/>
+      <c r="I11" s="29" t="s">
+        <v>62</v>
+      </c>
+      <c r="J11" s="30">
         <v>6934069.75</v>
       </c>
-      <c r="K11" s="35">
+      <c r="K11" s="30">
         <v>519045.75</v>
       </c>
-      <c r="L11" s="35">
+      <c r="L11" s="30">
         <v>1407796.75</v>
       </c>
-      <c r="M11" s="35">
+      <c r="M11" s="30">
         <v>2216691.75</v>
       </c>
-      <c r="N11" s="35">
+      <c r="N11" s="30">
         <v>3828627</v>
       </c>
     </row>
-    <row r="12" spans="1:16">
-      <c r="A12" s="14" t="s">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.4">
+      <c r="A12" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="B12" s="6">
+        <v>8366354</v>
+      </c>
+      <c r="C12" s="6">
+        <v>1278989</v>
+      </c>
+      <c r="D12" s="6"/>
+      <c r="E12" s="6">
+        <v>1026980</v>
+      </c>
+      <c r="F12" s="6">
+        <v>1202810</v>
+      </c>
+      <c r="G12" s="6"/>
+      <c r="O12" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.4">
+      <c r="A13" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="B12" s="8">
-        <v>8366354</v>
-      </c>
-      <c r="C12" s="8">
-        <v>1278989</v>
-      </c>
-      <c r="D12" s="8"/>
-      <c r="E12" s="8">
-        <v>1026980</v>
-      </c>
-      <c r="F12" s="8">
-        <v>1202810</v>
-      </c>
-      <c r="G12" s="8"/>
-      <c r="O12" t="s">
+      <c r="B13" s="6">
+        <v>8366001</v>
+      </c>
+      <c r="C13" s="6">
+        <v>1137818</v>
+      </c>
+      <c r="D13" s="6"/>
+      <c r="E13" s="6">
+        <v>1063392</v>
+      </c>
+      <c r="F13" s="6">
+        <v>1087563</v>
+      </c>
+      <c r="G13" s="6"/>
+      <c r="O13" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="13" spans="1:16">
-      <c r="A13" s="14" t="s">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.4">
+      <c r="A14" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="B13" s="8">
-        <v>8366001</v>
-      </c>
-      <c r="C13" s="8">
-        <v>1137818</v>
-      </c>
-      <c r="D13" s="8"/>
-      <c r="E13" s="8">
-        <v>1063392</v>
-      </c>
-      <c r="F13" s="8">
-        <v>1087563</v>
-      </c>
-      <c r="G13" s="8"/>
-      <c r="O13" t="s">
-        <v>42</v>
+      <c r="B14" s="6">
+        <v>8079963</v>
+      </c>
+      <c r="C14" s="6">
+        <v>1046936</v>
+      </c>
+      <c r="D14" s="6"/>
+      <c r="E14" s="6">
+        <v>1046380</v>
+      </c>
+      <c r="F14" s="6">
+        <v>1132623</v>
+      </c>
+      <c r="G14" s="6"/>
+      <c r="K14" s="30">
+        <v>123</v>
       </c>
     </row>
-    <row r="14" spans="1:16">
-      <c r="A14" s="14" t="s">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.4">
+      <c r="A15" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="B14" s="8">
-        <v>8079963</v>
-      </c>
-      <c r="C14" s="8">
-        <v>1046936</v>
-      </c>
-      <c r="D14" s="8"/>
-      <c r="E14" s="8">
-        <v>1046380</v>
-      </c>
-      <c r="F14" s="8">
-        <v>1132623</v>
-      </c>
-      <c r="G14" s="8"/>
+      <c r="B15" s="6">
+        <v>6857225</v>
+      </c>
+      <c r="C15" s="6">
+        <v>790558</v>
+      </c>
+      <c r="D15" s="6"/>
+      <c r="E15" s="6">
+        <v>836026</v>
+      </c>
+      <c r="F15" s="6">
+        <v>983619</v>
+      </c>
+      <c r="G15" s="6"/>
     </row>
-    <row r="15" spans="1:16">
-      <c r="A15" s="14" t="s">
+    <row r="16" spans="1:16" x14ac:dyDescent="0.4">
+      <c r="A16" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="B15" s="8">
-        <v>6857225</v>
-      </c>
-      <c r="C15" s="8">
-        <v>790558</v>
-      </c>
-      <c r="D15" s="8"/>
-      <c r="E15" s="8">
-        <v>836026</v>
-      </c>
-      <c r="F15" s="8">
-        <v>983619</v>
-      </c>
-      <c r="G15" s="8"/>
+      <c r="B16" s="6">
+        <v>8453147</v>
+      </c>
+      <c r="C16" s="6">
+        <v>867772</v>
+      </c>
+      <c r="D16" s="26"/>
+      <c r="E16" s="6">
+        <v>1171588</v>
+      </c>
+      <c r="F16" s="6">
+        <v>1163295</v>
+      </c>
+      <c r="G16" s="26"/>
+      <c r="J16" s="14"/>
+      <c r="L16" s="5"/>
     </row>
-    <row r="16" spans="1:16">
-      <c r="A16" s="14" t="s">
-        <v>18</v>
-      </c>
-      <c r="B16" s="8">
-        <v>8453147</v>
-      </c>
-      <c r="C16" s="8">
-        <v>867772</v>
-      </c>
-      <c r="D16" s="31"/>
-      <c r="E16" s="8">
-        <v>1171588</v>
-      </c>
-      <c r="F16" s="8">
-        <v>1163295</v>
-      </c>
-      <c r="G16" s="31"/>
-      <c r="J16" s="19"/>
-      <c r="L16" s="7"/>
-    </row>
-    <row r="17" spans="1:7">
-      <c r="A17" s="19" t="s">
-        <v>44</v>
-      </c>
-      <c r="B17" s="28">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A17" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="B17" s="23">
         <f>AVERAGE(B12:B16)</f>
         <v>8024538</v>
       </c>
-      <c r="C17" s="28">
+      <c r="C17" s="23">
         <f>AVERAGE(C12:C16)</f>
         <v>1024414.6</v>
       </c>
-      <c r="D17" s="25">
+      <c r="D17" s="20">
         <f>B17+C17</f>
         <v>9048952.5999999996</v>
       </c>
-      <c r="E17" s="28">
-        <f t="shared" ref="C17:G17" si="1">AVERAGE(E12:E16)</f>
+      <c r="E17" s="23">
+        <f t="shared" ref="E17:F17" si="1">AVERAGE(E12:E16)</f>
         <v>1028873.2</v>
       </c>
-      <c r="F17" s="28">
+      <c r="F17" s="23">
         <f t="shared" si="1"/>
         <v>1113982</v>
       </c>
-      <c r="G17" s="25">
+      <c r="G17" s="20">
         <f>E17+F17</f>
         <v>2142855.2000000002</v>
       </c>
     </row>
-    <row r="18" spans="1:7" s="17" customFormat="1">
-      <c r="A18" s="20" t="s">
-        <v>45</v>
-      </c>
-      <c r="B18" s="30">
+    <row r="18" spans="1:12" s="12" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A18" s="15" t="s">
+        <v>44</v>
+      </c>
+      <c r="B18" s="25">
         <f>D17-G17</f>
         <v>6906097.3999999994</v>
       </c>
-      <c r="C18" s="13"/>
-      <c r="D18" s="13"/>
-      <c r="E18" s="13"/>
-      <c r="F18" s="13"/>
-      <c r="G18" s="13"/>
+      <c r="C18" s="8"/>
+      <c r="D18" s="8"/>
+      <c r="E18" s="8"/>
+      <c r="F18" s="8"/>
+      <c r="G18" s="8"/>
     </row>
-    <row r="19" spans="1:7" s="17" customFormat="1">
-      <c r="A19" s="18" t="s">
-        <v>46</v>
-      </c>
-      <c r="B19" s="29">
+    <row r="19" spans="1:12" s="12" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A19" s="13" t="s">
+        <v>45</v>
+      </c>
+      <c r="B19" s="24">
         <f>AVERAGE(B5:B9,B12:B16)</f>
         <v>8206087</v>
       </c>
-      <c r="C19" s="29">
+      <c r="C19" s="24">
         <f>AVERAGE(C5:C9,C12:C16)</f>
         <v>1469031.8</v>
       </c>
-      <c r="D19" s="21">
+      <c r="D19" s="16">
         <f>B19+C19</f>
         <v>9675118.8000000007</v>
       </c>
-      <c r="E19" s="29">
+      <c r="E19" s="24">
         <f>AVERAGE(E5:E9,E12:E16)</f>
         <v>1051983.2</v>
       </c>
-      <c r="F19" s="29">
-        <f t="shared" ref="F19:G19" si="2">AVERAGE(F5:F9,F12:F16)</f>
+      <c r="F19" s="24">
+        <f t="shared" ref="F19" si="2">AVERAGE(F5:F9,F12:F16)</f>
         <v>1015936.1</v>
       </c>
-      <c r="G19" s="21">
+      <c r="G19" s="16">
         <f>E19+F19</f>
         <v>2067919.2999999998</v>
       </c>
     </row>
-    <row r="20" spans="1:7" s="17" customFormat="1">
-      <c r="A20" s="20" t="s">
-        <v>43</v>
-      </c>
-      <c r="B20" s="30">
+    <row r="20" spans="1:12" s="12" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A20" s="15" t="s">
+        <v>42</v>
+      </c>
+      <c r="B20" s="25">
         <f>D19-G19</f>
         <v>7607199.5000000009</v>
       </c>
-      <c r="C20" s="13"/>
-      <c r="D20" s="13"/>
-      <c r="E20" s="13"/>
-      <c r="F20" s="13"/>
-      <c r="G20" s="13"/>
+      <c r="C20" s="8"/>
+      <c r="D20" s="8"/>
+      <c r="E20" s="8"/>
+      <c r="F20" s="8"/>
+      <c r="G20" s="8"/>
     </row>
-    <row r="21" spans="1:7">
-      <c r="A21" s="15" t="s">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A21" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="B21" s="6">
+        <v>9649972</v>
+      </c>
+      <c r="C21" s="6">
+        <v>882834</v>
+      </c>
+      <c r="D21" s="6"/>
+      <c r="E21" s="6">
+        <v>1346106</v>
+      </c>
+      <c r="F21" s="6">
+        <v>1516314</v>
+      </c>
+      <c r="G21" s="6"/>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A22" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="B21" s="8">
-        <v>9649972</v>
-      </c>
-      <c r="C21" s="8">
-        <v>882834</v>
-      </c>
-      <c r="D21" s="8"/>
-      <c r="E21" s="8">
-        <v>1346106</v>
-      </c>
-      <c r="F21" s="8">
-        <v>1516314</v>
-      </c>
-      <c r="G21" s="8"/>
+      <c r="B22" s="6">
+        <v>9173759</v>
+      </c>
+      <c r="C22" s="6">
+        <v>863352</v>
+      </c>
+      <c r="D22" s="6"/>
+      <c r="E22" s="6">
+        <v>1272355</v>
+      </c>
+      <c r="F22" s="6">
+        <v>1624381</v>
+      </c>
+      <c r="G22" s="6"/>
     </row>
-    <row r="22" spans="1:7">
-      <c r="A22" s="15" t="s">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A23" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="B22" s="8">
-        <v>9173759</v>
-      </c>
-      <c r="C22" s="8">
-        <v>863352</v>
-      </c>
-      <c r="D22" s="8"/>
-      <c r="E22" s="8">
-        <v>1272355</v>
-      </c>
-      <c r="F22" s="8">
-        <v>1624381</v>
-      </c>
-      <c r="G22" s="8"/>
+      <c r="B23" s="6">
+        <v>9230465</v>
+      </c>
+      <c r="C23" s="6">
+        <v>829778</v>
+      </c>
+      <c r="D23" s="6"/>
+      <c r="E23" s="6">
+        <v>1204417</v>
+      </c>
+      <c r="F23" s="6">
+        <v>1606509</v>
+      </c>
+      <c r="G23" s="6"/>
     </row>
-    <row r="23" spans="1:7">
-      <c r="A23" s="15" t="s">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A24" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="B23" s="8">
-        <v>9230465</v>
-      </c>
-      <c r="C23" s="8">
-        <v>829778</v>
-      </c>
-      <c r="D23" s="8"/>
-      <c r="E23" s="8">
-        <v>1204417</v>
-      </c>
-      <c r="F23" s="8">
-        <v>1606509</v>
-      </c>
-      <c r="G23" s="8"/>
+      <c r="B24" s="6">
+        <v>9299055</v>
+      </c>
+      <c r="C24" s="6">
+        <v>817580</v>
+      </c>
+      <c r="D24" s="6"/>
+      <c r="E24" s="6">
+        <v>1241972</v>
+      </c>
+      <c r="F24" s="6">
+        <v>1760884</v>
+      </c>
+      <c r="G24" s="6"/>
     </row>
-    <row r="24" spans="1:7">
-      <c r="A24" s="15" t="s">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A25" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="B24" s="8">
-        <v>9299055</v>
-      </c>
-      <c r="C24" s="8">
-        <v>817580</v>
-      </c>
-      <c r="D24" s="8"/>
-      <c r="E24" s="8">
-        <v>1241972</v>
-      </c>
-      <c r="F24" s="8">
-        <v>1760884</v>
-      </c>
-      <c r="G24" s="8"/>
+      <c r="B25" s="6">
+        <v>8887386</v>
+      </c>
+      <c r="C25" s="6">
+        <v>757819</v>
+      </c>
+      <c r="D25" s="26"/>
+      <c r="E25" s="6">
+        <v>1165313</v>
+      </c>
+      <c r="F25" s="6">
+        <v>1922401</v>
+      </c>
+      <c r="G25" s="26"/>
     </row>
-    <row r="25" spans="1:7">
-      <c r="A25" s="15" t="s">
-        <v>23</v>
-      </c>
-      <c r="B25" s="8">
-        <v>8887386</v>
-      </c>
-      <c r="C25" s="8">
-        <v>757819</v>
-      </c>
-      <c r="D25" s="31"/>
-      <c r="E25" s="8">
-        <v>1165313</v>
-      </c>
-      <c r="F25" s="8">
-        <v>1922401</v>
-      </c>
-      <c r="G25" s="31"/>
-    </row>
-    <row r="26" spans="1:7">
-      <c r="A26" s="26" t="s">
-        <v>44</v>
-      </c>
-      <c r="B26" s="37">
+    <row r="26" spans="1:12" ht="17.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A26" s="21" t="s">
+        <v>43</v>
+      </c>
+      <c r="B26" s="32">
         <f>AVERAGE(B21:B25)</f>
         <v>9248127.4000000004</v>
       </c>
-      <c r="C26" s="37">
-        <f t="shared" ref="C26:G26" si="3">AVERAGE(C21:C25)</f>
+      <c r="C26" s="32">
+        <f t="shared" ref="C26:F26" si="3">AVERAGE(C21:C25)</f>
         <v>830272.6</v>
       </c>
-      <c r="D26" s="27">
+      <c r="D26" s="22">
         <f>B26+C26</f>
         <v>10078400</v>
       </c>
-      <c r="E26" s="37">
+      <c r="E26" s="32">
         <f>AVERAGE(E21:E25)</f>
         <v>1246032.6000000001</v>
       </c>
-      <c r="F26" s="37">
+      <c r="F26" s="32">
         <f t="shared" si="3"/>
         <v>1686097.8</v>
       </c>
-      <c r="G26" s="27">
+      <c r="G26" s="22">
         <f>E26+F26</f>
         <v>2932130.4000000004</v>
       </c>
     </row>
-    <row r="27" spans="1:7" s="17" customFormat="1">
-      <c r="A27" s="22" t="s">
-        <v>45</v>
-      </c>
-      <c r="B27" s="30">
+    <row r="27" spans="1:12" s="12" customFormat="1" ht="68.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A27" s="17" t="s">
+        <v>44</v>
+      </c>
+      <c r="B27" s="25">
         <f>D26-G26</f>
         <v>7146269.5999999996</v>
       </c>
-      <c r="C27" s="13"/>
-      <c r="D27" s="13"/>
-      <c r="E27" s="13"/>
-      <c r="F27" s="13"/>
-      <c r="G27" s="13"/>
+      <c r="C27" s="8"/>
+      <c r="D27" s="8"/>
+      <c r="E27" s="8"/>
+      <c r="F27" s="8"/>
+      <c r="G27" s="8"/>
+      <c r="I27" s="44" t="s">
+        <v>50</v>
+      </c>
+      <c r="J27" s="45" t="s">
+        <v>72</v>
+      </c>
+      <c r="K27" s="45" t="s">
+        <v>73</v>
+      </c>
+      <c r="L27" s="45" t="s">
+        <v>74</v>
+      </c>
     </row>
-    <row r="28" spans="1:7">
-      <c r="A28" s="15" t="s">
+    <row r="28" spans="1:12" ht="34.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A28" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="B28" s="6">
+        <v>8268973</v>
+      </c>
+      <c r="C28" s="6">
+        <v>664213</v>
+      </c>
+      <c r="D28" s="6"/>
+      <c r="E28" s="6">
+        <v>1123073</v>
+      </c>
+      <c r="F28" s="6">
+        <v>1885235</v>
+      </c>
+      <c r="G28" s="6"/>
+      <c r="I28" s="46" t="s">
+        <v>75</v>
+      </c>
+      <c r="J28" s="47">
+        <v>10301285</v>
+      </c>
+      <c r="K28" s="47">
+        <v>1992983</v>
+      </c>
+      <c r="L28" s="47">
+        <v>8308302</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12" ht="34.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A29" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="B28" s="8">
-        <v>8268973</v>
-      </c>
-      <c r="C28" s="8">
-        <v>664213</v>
-      </c>
-      <c r="D28" s="8"/>
-      <c r="E28" s="8">
-        <v>1123073</v>
-      </c>
-      <c r="F28" s="8">
-        <v>1885235</v>
-      </c>
-      <c r="G28" s="8"/>
+      <c r="B29" s="6">
+        <v>8549885</v>
+      </c>
+      <c r="C29" s="6">
+        <v>648963</v>
+      </c>
+      <c r="D29" s="6"/>
+      <c r="E29" s="6">
+        <v>1198247</v>
+      </c>
+      <c r="F29" s="6">
+        <v>1797118</v>
+      </c>
+      <c r="G29" s="6"/>
+      <c r="I29" s="46" t="s">
+        <v>76</v>
+      </c>
+      <c r="J29" s="47">
+        <v>9048953</v>
+      </c>
+      <c r="K29" s="47">
+        <v>2142855</v>
+      </c>
+      <c r="L29" s="47">
+        <v>6906097</v>
+      </c>
     </row>
-    <row r="29" spans="1:7">
-      <c r="A29" s="15" t="s">
+    <row r="30" spans="1:12" ht="34.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A30" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="B29" s="8">
-        <v>8549885</v>
-      </c>
-      <c r="C29" s="8">
-        <v>648963</v>
-      </c>
-      <c r="D29" s="8"/>
-      <c r="E29" s="8">
-        <v>1198247</v>
-      </c>
-      <c r="F29" s="8">
-        <v>1797118</v>
-      </c>
-      <c r="G29" s="8"/>
+      <c r="B30" s="6">
+        <v>8565830</v>
+      </c>
+      <c r="C30" s="6">
+        <v>605140</v>
+      </c>
+      <c r="D30" s="6"/>
+      <c r="E30" s="6">
+        <v>1298589</v>
+      </c>
+      <c r="F30" s="6">
+        <v>1998502</v>
+      </c>
+      <c r="G30" s="6"/>
+      <c r="I30" s="46" t="s">
+        <v>77</v>
+      </c>
+      <c r="J30" s="47">
+        <v>10078400</v>
+      </c>
+      <c r="K30" s="47">
+        <v>2932130</v>
+      </c>
+      <c r="L30" s="47">
+        <v>7146270</v>
+      </c>
     </row>
-    <row r="30" spans="1:7">
-      <c r="A30" s="15" t="s">
+    <row r="31" spans="1:12" ht="34.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A31" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="B30" s="8">
-        <v>8565830</v>
-      </c>
-      <c r="C30" s="8">
-        <v>605140</v>
-      </c>
-      <c r="D30" s="8"/>
-      <c r="E30" s="8">
-        <v>1298589</v>
-      </c>
-      <c r="F30" s="8">
-        <v>1998502</v>
-      </c>
-      <c r="G30" s="8"/>
+      <c r="B31" s="6">
+        <v>7941077</v>
+      </c>
+      <c r="C31" s="6">
+        <v>589272</v>
+      </c>
+      <c r="D31" s="6"/>
+      <c r="E31" s="6">
+        <v>1261408</v>
+      </c>
+      <c r="F31" s="6">
+        <v>2018970</v>
+      </c>
+      <c r="G31" s="6"/>
+      <c r="I31" s="46" t="s">
+        <v>78</v>
+      </c>
+      <c r="J31" s="47">
+        <v>8584561</v>
+      </c>
+      <c r="K31" s="47">
+        <v>3154045</v>
+      </c>
+      <c r="L31" s="47">
+        <v>5430516</v>
+      </c>
     </row>
-    <row r="31" spans="1:7">
-      <c r="A31" s="15" t="s">
+    <row r="32" spans="1:12" ht="34.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A32" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="B31" s="8">
-        <v>7941077</v>
-      </c>
-      <c r="C31" s="8">
-        <v>589272</v>
-      </c>
-      <c r="D31" s="8"/>
-      <c r="E31" s="8">
-        <v>1261408</v>
-      </c>
-      <c r="F31" s="8">
-        <v>2018970</v>
-      </c>
-      <c r="G31" s="8"/>
+      <c r="B32" s="6">
+        <v>6570940</v>
+      </c>
+      <c r="C32" s="6">
+        <v>518513</v>
+      </c>
+      <c r="D32" s="26"/>
+      <c r="E32" s="6">
+        <v>1306669</v>
+      </c>
+      <c r="F32" s="6">
+        <v>1882416</v>
+      </c>
+      <c r="G32" s="26"/>
+      <c r="I32" s="46" t="s">
+        <v>79</v>
+      </c>
+      <c r="J32" s="47">
+        <v>7453116</v>
+      </c>
+      <c r="K32" s="47">
+        <v>3624489</v>
+      </c>
+      <c r="L32" s="47">
+        <v>3828627</v>
+      </c>
     </row>
-    <row r="32" spans="1:7">
-      <c r="A32" s="15" t="s">
-        <v>28</v>
-      </c>
-      <c r="B32" s="8">
-        <v>6570940</v>
-      </c>
-      <c r="C32" s="8">
-        <v>518513</v>
-      </c>
-      <c r="D32" s="31"/>
-      <c r="E32" s="8">
-        <v>1306669</v>
-      </c>
-      <c r="F32" s="8">
-        <v>1882416</v>
-      </c>
-      <c r="G32" s="31"/>
-    </row>
-    <row r="33" spans="1:7">
-      <c r="A33" s="26" t="s">
-        <v>44</v>
-      </c>
-      <c r="B33" s="37">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A33" s="21" t="s">
+        <v>43</v>
+      </c>
+      <c r="B33" s="32">
         <f>AVERAGE(B28:B32)</f>
         <v>7979341</v>
       </c>
-      <c r="C33" s="37">
-        <f t="shared" ref="C33:G33" si="4">AVERAGE(C28:C32)</f>
+      <c r="C33" s="32">
+        <f t="shared" ref="C33:F33" si="4">AVERAGE(C28:C32)</f>
         <v>605220.19999999995</v>
       </c>
-      <c r="D33" s="27">
+      <c r="D33" s="22">
         <f>B33+C33</f>
         <v>8584561.1999999993</v>
       </c>
-      <c r="E33" s="37">
+      <c r="E33" s="32">
         <f t="shared" si="4"/>
         <v>1237597.2</v>
       </c>
-      <c r="F33" s="37">
+      <c r="F33" s="32">
         <f t="shared" si="4"/>
         <v>1916448.2</v>
       </c>
-      <c r="G33" s="27">
+      <c r="G33" s="22">
         <f>E33+F33</f>
         <v>3154045.4</v>
       </c>
+      <c r="I33" s="48" t="s">
+        <v>80</v>
+      </c>
     </row>
-    <row r="34" spans="1:7" s="17" customFormat="1">
-      <c r="A34" s="22" t="s">
-        <v>45</v>
-      </c>
-      <c r="B34" s="30">
+    <row r="34" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A34" s="17" t="s">
+        <v>44</v>
+      </c>
+      <c r="B34" s="25">
         <f>D33-G33</f>
         <v>5430515.7999999989</v>
       </c>
-      <c r="C34" s="13"/>
-      <c r="D34" s="13"/>
-      <c r="E34" s="13"/>
-      <c r="F34" s="13"/>
-      <c r="G34" s="13"/>
+      <c r="C34" s="8"/>
+      <c r="D34" s="8"/>
+      <c r="E34" s="8"/>
+      <c r="F34" s="8"/>
+      <c r="G34" s="8"/>
     </row>
-    <row r="35" spans="1:7" s="17" customFormat="1">
-      <c r="A35" s="16" t="s">
-        <v>47</v>
-      </c>
-      <c r="B35" s="38">
+    <row r="35" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A35" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="B35" s="33">
         <f>AVERAGE(B21:B25,B28:B32)</f>
         <v>8613734.1999999993</v>
       </c>
-      <c r="C35" s="38">
+      <c r="C35" s="33">
         <f>AVERAGE(C21:C25,C28:C32)</f>
         <v>717746.4</v>
       </c>
-      <c r="D35" s="23">
+      <c r="D35" s="18">
         <f>B35+C35</f>
         <v>9331480.5999999996</v>
       </c>
-      <c r="E35" s="38">
+      <c r="E35" s="33">
         <f>AVERAGE(E21:E25,E28:E32)</f>
         <v>1241814.8999999999</v>
       </c>
-      <c r="F35" s="38">
+      <c r="F35" s="33">
         <f>AVERAGE(F21:F25,F28:F32)</f>
         <v>1801273</v>
       </c>
-      <c r="G35" s="23">
+      <c r="G35" s="18">
         <f>E35+F35</f>
         <v>3043087.9</v>
       </c>
     </row>
-    <row r="36" spans="1:7">
-      <c r="A36" s="22" t="s">
-        <v>43</v>
-      </c>
-      <c r="B36" s="42">
+    <row r="36" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A36" s="17" t="s">
+        <v>42</v>
+      </c>
+      <c r="B36" s="37">
         <f>D35-G35</f>
         <v>6288392.6999999993</v>
       </c>
-      <c r="C36" s="39" t="s">
-        <v>64</v>
-      </c>
-      <c r="D36" s="8"/>
-      <c r="E36" s="8"/>
-      <c r="F36" s="8"/>
-      <c r="G36" s="8"/>
+      <c r="C36" s="34" t="s">
+        <v>63</v>
+      </c>
+      <c r="D36" s="6"/>
+      <c r="E36" s="6"/>
+      <c r="F36" s="6"/>
+      <c r="G36" s="6"/>
     </row>
-    <row r="37" spans="1:7">
-      <c r="A37" s="6" t="s">
+    <row r="37" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A37" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="B37" s="6">
+        <v>7968290</v>
+      </c>
+      <c r="C37" s="6">
+        <v>615486</v>
+      </c>
+      <c r="D37" s="6"/>
+      <c r="E37" s="6">
+        <v>1545337</v>
+      </c>
+      <c r="F37" s="6">
+        <v>2021482</v>
+      </c>
+      <c r="G37" s="6"/>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A38" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="B37" s="8">
-        <v>7968290</v>
-      </c>
-      <c r="C37" s="8">
-        <v>615486</v>
-      </c>
-      <c r="D37" s="8"/>
-      <c r="E37" s="8">
-        <v>1545337</v>
-      </c>
-      <c r="F37" s="8">
-        <v>2021482</v>
-      </c>
-      <c r="G37" s="8"/>
+      <c r="B38" s="6">
+        <v>7855179</v>
+      </c>
+      <c r="C38" s="6">
+        <v>588742</v>
+      </c>
+      <c r="D38" s="6"/>
+      <c r="E38" s="6">
+        <v>1510973</v>
+      </c>
+      <c r="F38" s="6">
+        <v>2220884</v>
+      </c>
+      <c r="G38" s="6"/>
     </row>
-    <row r="38" spans="1:7">
-      <c r="A38" s="6" t="s">
+    <row r="39" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A39" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="B38" s="8">
-        <v>7855179</v>
-      </c>
-      <c r="C38" s="8">
-        <v>588742</v>
-      </c>
-      <c r="D38" s="8"/>
-      <c r="E38" s="8">
-        <v>1510973</v>
-      </c>
-      <c r="F38" s="8">
-        <v>2220884</v>
-      </c>
-      <c r="G38" s="8"/>
+      <c r="B39" s="6">
+        <v>5877693</v>
+      </c>
+      <c r="C39" s="6">
+        <v>436048</v>
+      </c>
+      <c r="D39" s="6"/>
+      <c r="E39" s="6">
+        <v>1248311</v>
+      </c>
+      <c r="F39" s="6">
+        <v>2309092</v>
+      </c>
+      <c r="G39" s="6"/>
     </row>
-    <row r="39" spans="1:7">
-      <c r="A39" s="6" t="s">
+    <row r="40" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A40" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="B39" s="8">
-        <v>5877693</v>
-      </c>
-      <c r="C39" s="8">
-        <v>436048</v>
-      </c>
-      <c r="D39" s="8"/>
-      <c r="E39" s="8">
-        <v>1248311</v>
-      </c>
-      <c r="F39" s="8">
-        <v>2309092</v>
-      </c>
-      <c r="G39" s="8"/>
+      <c r="B40" s="6">
+        <v>6035117</v>
+      </c>
+      <c r="C40" s="6">
+        <v>435907</v>
+      </c>
+      <c r="D40" s="6"/>
+      <c r="E40" s="6">
+        <v>1326566</v>
+      </c>
+      <c r="F40" s="6">
+        <v>2315309</v>
+      </c>
+      <c r="G40" s="6"/>
     </row>
-    <row r="40" spans="1:7">
-      <c r="A40" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="B40" s="8">
-        <v>6035117</v>
-      </c>
-      <c r="C40" s="8">
-        <v>435907</v>
-      </c>
-      <c r="D40" s="8"/>
-      <c r="E40" s="8">
-        <v>1326566</v>
-      </c>
-      <c r="F40" s="8">
-        <v>2315309</v>
-      </c>
-      <c r="G40" s="8"/>
-    </row>
-    <row r="41" spans="1:7" s="17" customFormat="1">
-      <c r="A41" s="12" t="s">
-        <v>48</v>
-      </c>
-      <c r="B41" s="29">
+    <row r="41" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A41" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="B41" s="24">
         <f>AVERAGE(B37:B40)</f>
         <v>6934069.75</v>
       </c>
-      <c r="C41" s="29">
-        <f t="shared" ref="C41:G41" si="5">AVERAGE(C37:C40)</f>
+      <c r="C41" s="24">
+        <f t="shared" ref="C41:F41" si="5">AVERAGE(C37:C40)</f>
         <v>519045.75</v>
       </c>
-      <c r="D41" s="21">
+      <c r="D41" s="16">
         <f>B41+C41</f>
         <v>7453115.5</v>
       </c>
-      <c r="E41" s="29">
+      <c r="E41" s="24">
         <f t="shared" si="5"/>
         <v>1407796.75</v>
       </c>
-      <c r="F41" s="29">
+      <c r="F41" s="24">
         <f t="shared" si="5"/>
         <v>2216691.75</v>
       </c>
-      <c r="G41" s="21">
+      <c r="G41" s="16">
         <f>E41+F41</f>
         <v>3624488.5</v>
       </c>
     </row>
-    <row r="42" spans="1:7" s="17" customFormat="1">
-      <c r="A42" s="24" t="s">
-        <v>49</v>
-      </c>
-      <c r="B42" s="41">
+    <row r="42" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A42" s="19" t="s">
+        <v>48</v>
+      </c>
+      <c r="B42" s="36">
         <f>D41-G41</f>
         <v>3828627</v>
       </c>
-      <c r="C42" s="39"/>
-      <c r="D42" s="13"/>
-      <c r="E42" s="13"/>
-      <c r="F42" s="13"/>
-      <c r="G42" s="13"/>
+      <c r="C42" s="34"/>
+      <c r="D42" s="8"/>
+      <c r="E42" s="8"/>
+      <c r="F42" s="8"/>
+      <c r="G42" s="8"/>
     </row>
-    <row r="44" spans="1:7">
-      <c r="B44" s="7"/>
+    <row r="44" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="B44" s="5"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -4604,69 +6804,69 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{48D54EE2-B671-49F6-A456-D1AE46AD361A}">
   <dimension ref="A1:B7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.2"/>
+  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="15" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="44.88671875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="44.90625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
-      <c r="A1" s="43" t="s">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A1" s="38" t="s">
+        <v>64</v>
+      </c>
+      <c r="B1" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A2" s="39" t="s">
+        <v>56</v>
+      </c>
+      <c r="B2" s="5">
+        <v>8308301.5999999996</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A3" s="39" t="s">
+        <v>58</v>
+      </c>
+      <c r="B3" s="5">
+        <v>7607199.5000000009</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A4" s="39" t="s">
+        <v>59</v>
+      </c>
+      <c r="B4" s="5">
+        <v>7146269.5999999996</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A5" s="39" t="s">
+        <v>61</v>
+      </c>
+      <c r="B5" s="5">
+        <v>6288392.6999999993</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A6" s="39" t="s">
+        <v>62</v>
+      </c>
+      <c r="B6" s="5">
+        <v>3828627</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A7" s="39" t="s">
         <v>65</v>
       </c>
-      <c r="B1" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2">
-      <c r="A2" s="44" t="s">
-        <v>57</v>
-      </c>
-      <c r="B2" s="7">
-        <v>8308301.5999999996</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2">
-      <c r="A3" s="44" t="s">
-        <v>59</v>
-      </c>
-      <c r="B3" s="7">
-        <v>7607199.5000000009</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2">
-      <c r="A4" s="44" t="s">
-        <v>60</v>
-      </c>
-      <c r="B4" s="7">
-        <v>7146269.5999999996</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2">
-      <c r="A5" s="44" t="s">
-        <v>62</v>
-      </c>
-      <c r="B5" s="7">
-        <v>6288392.6999999993</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2">
-      <c r="A6" s="44" t="s">
-        <v>63</v>
-      </c>
-      <c r="B6" s="7">
-        <v>3828627</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2">
-      <c r="A7" s="44" t="s">
-        <v>66</v>
-      </c>
-      <c r="B7" s="7">
+      <c r="B7" s="5">
         <v>33178790.400000002</v>
       </c>
     </row>
@@ -4675,4 +6875,369 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{86DBD6DA-CFE2-47A9-9B65-389FD50F2347}">
+  <dimension ref="B1:V5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="P11" sqref="P11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="2" max="2" width="18.6328125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:22" x14ac:dyDescent="0.4">
+      <c r="B1" t="s">
+        <v>67</v>
+      </c>
+      <c r="C1">
+        <v>2005</v>
+      </c>
+      <c r="D1">
+        <v>2006</v>
+      </c>
+      <c r="E1">
+        <v>2007</v>
+      </c>
+      <c r="F1">
+        <v>2008</v>
+      </c>
+      <c r="G1">
+        <v>2009</v>
+      </c>
+      <c r="H1">
+        <v>2010</v>
+      </c>
+      <c r="I1">
+        <v>2011</v>
+      </c>
+      <c r="J1">
+        <v>2012</v>
+      </c>
+      <c r="K1">
+        <v>2013</v>
+      </c>
+      <c r="L1">
+        <v>2014</v>
+      </c>
+      <c r="M1">
+        <v>2015</v>
+      </c>
+      <c r="N1">
+        <v>2016</v>
+      </c>
+      <c r="O1">
+        <v>2017</v>
+      </c>
+      <c r="P1">
+        <v>2018</v>
+      </c>
+      <c r="Q1">
+        <v>2019</v>
+      </c>
+      <c r="R1">
+        <v>2020</v>
+      </c>
+      <c r="S1">
+        <v>2021</v>
+      </c>
+      <c r="T1">
+        <v>2022</v>
+      </c>
+      <c r="U1">
+        <v>2023</v>
+      </c>
+      <c r="V1">
+        <v>2024</v>
+      </c>
+    </row>
+    <row r="2" spans="2:22" x14ac:dyDescent="0.4">
+      <c r="B2" t="s">
+        <v>68</v>
+      </c>
+      <c r="C2">
+        <f>C4+C3+C5</f>
+        <v>5129</v>
+      </c>
+      <c r="D2">
+        <f>D4+D3+D5</f>
+        <v>5010</v>
+      </c>
+      <c r="E2">
+        <f>E4+E3+E5</f>
+        <v>5180</v>
+      </c>
+      <c r="F2">
+        <f>F4+F3+F5</f>
+        <v>4554</v>
+      </c>
+      <c r="G2">
+        <f>G4+G3+G5</f>
+        <v>3858</v>
+      </c>
+      <c r="H2">
+        <f>H4+H3+H5</f>
+        <v>4945</v>
+      </c>
+      <c r="I2">
+        <f>I4+I3+I5</f>
+        <v>5146</v>
+      </c>
+      <c r="J2">
+        <f>J4+J3+J5</f>
+        <v>4773</v>
+      </c>
+      <c r="K2">
+        <f>K4+K3+K5</f>
+        <v>4846</v>
+      </c>
+      <c r="L2">
+        <f>L4+L3+L5</f>
+        <v>4822</v>
+      </c>
+      <c r="M2">
+        <f>M4+M3+M5</f>
+        <v>4621</v>
+      </c>
+      <c r="N2">
+        <f>N4+N3+N5</f>
+        <v>4301</v>
+      </c>
+      <c r="O2">
+        <f>O4+O3+O5</f>
+        <v>4248</v>
+      </c>
+      <c r="P2">
+        <f>P4+P3+P5</f>
+        <v>4313</v>
+      </c>
+      <c r="Q2">
+        <f>Q4+Q3+Q5</f>
+        <v>4069</v>
+      </c>
+      <c r="R2">
+        <f>R4+R3+R5</f>
+        <v>3466</v>
+      </c>
+      <c r="S2">
+        <f>S4+S3+S5</f>
+        <v>4043</v>
+      </c>
+      <c r="T2">
+        <f>T4+T3+T5</f>
+        <v>3991</v>
+      </c>
+      <c r="U2">
+        <f>U4+U3+U5</f>
+        <v>3099</v>
+      </c>
+      <c r="V2">
+        <f>V4+V3+V5</f>
+        <v>3336</v>
+      </c>
+    </row>
+    <row r="3" spans="2:22" x14ac:dyDescent="0.4">
+      <c r="B3" t="s">
+        <v>70</v>
+      </c>
+      <c r="C3">
+        <v>3136</v>
+      </c>
+      <c r="D3">
+        <v>3078</v>
+      </c>
+      <c r="E3">
+        <v>3242</v>
+      </c>
+      <c r="F3">
+        <v>2967</v>
+      </c>
+      <c r="G3">
+        <v>2521</v>
+      </c>
+      <c r="H3">
+        <v>3231</v>
+      </c>
+      <c r="I3">
+        <v>3369</v>
+      </c>
+      <c r="J3">
+        <v>3171</v>
+      </c>
+      <c r="K3">
+        <v>3280</v>
+      </c>
+      <c r="L3">
+        <v>3318</v>
+      </c>
+      <c r="M3">
+        <v>3309</v>
+      </c>
+      <c r="N3">
+        <v>3117</v>
+      </c>
+      <c r="O3">
+        <v>3087</v>
+      </c>
+      <c r="P3">
+        <v>3123</v>
+      </c>
+      <c r="Q3">
+        <v>3028</v>
+      </c>
+      <c r="R3">
+        <v>2690</v>
+      </c>
+      <c r="S3">
+        <v>3104</v>
+      </c>
+      <c r="T3">
+        <v>3106</v>
+      </c>
+      <c r="U3">
+        <v>2416</v>
+      </c>
+      <c r="V3">
+        <v>2612</v>
+      </c>
+    </row>
+    <row r="4" spans="2:22" x14ac:dyDescent="0.4">
+      <c r="B4" t="s">
+        <v>69</v>
+      </c>
+      <c r="C4">
+        <v>1490</v>
+      </c>
+      <c r="D4">
+        <v>1483</v>
+      </c>
+      <c r="E4">
+        <v>1524</v>
+      </c>
+      <c r="F4">
+        <v>1217</v>
+      </c>
+      <c r="G4">
+        <v>1039</v>
+      </c>
+      <c r="H4">
+        <v>1393</v>
+      </c>
+      <c r="I4">
+        <v>1466</v>
+      </c>
+      <c r="J4">
+        <v>1296</v>
+      </c>
+      <c r="K4">
+        <v>1260</v>
+      </c>
+      <c r="L4">
+        <v>1191</v>
+      </c>
+      <c r="M4">
+        <v>999</v>
+      </c>
+      <c r="N4">
+        <v>877</v>
+      </c>
+      <c r="O4">
+        <v>871</v>
+      </c>
+      <c r="P4">
+        <v>920</v>
+      </c>
+      <c r="Q4">
+        <v>772</v>
+      </c>
+      <c r="R4">
+        <v>533</v>
+      </c>
+      <c r="S4">
+        <v>679</v>
+      </c>
+      <c r="T4">
+        <v>623</v>
+      </c>
+      <c r="U4">
+        <v>470</v>
+      </c>
+      <c r="V4">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="5" spans="2:22" x14ac:dyDescent="0.4">
+      <c r="B5" t="s">
+        <v>71</v>
+      </c>
+      <c r="C5">
+        <v>503</v>
+      </c>
+      <c r="D5">
+        <v>449</v>
+      </c>
+      <c r="E5">
+        <v>414</v>
+      </c>
+      <c r="F5">
+        <v>370</v>
+      </c>
+      <c r="G5">
+        <v>298</v>
+      </c>
+      <c r="H5">
+        <v>321</v>
+      </c>
+      <c r="I5">
+        <v>311</v>
+      </c>
+      <c r="J5">
+        <v>306</v>
+      </c>
+      <c r="K5">
+        <v>306</v>
+      </c>
+      <c r="L5">
+        <v>313</v>
+      </c>
+      <c r="M5">
+        <v>313</v>
+      </c>
+      <c r="N5">
+        <v>307</v>
+      </c>
+      <c r="O5">
+        <v>290</v>
+      </c>
+      <c r="P5">
+        <v>270</v>
+      </c>
+      <c r="Q5">
+        <v>269</v>
+      </c>
+      <c r="R5">
+        <v>243</v>
+      </c>
+      <c r="S5">
+        <v>260</v>
+      </c>
+      <c r="T5">
+        <v>262</v>
+      </c>
+      <c r="U5">
+        <v>213</v>
+      </c>
+      <c r="V5">
+        <v>212</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="8" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>